--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCFolder.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCFolder.xlsx
@@ -835,7 +835,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCDocumentReference)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReference)
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCFolder.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCFolder.xlsx
@@ -835,7 +835,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCDocumentReference)
+    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocumentReference)
 </t>
   </si>
   <si>
